--- a/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
+++ b/Robot Facturación Materia Prima/Config/Dia_Ejecucion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Dia_Ejecucion</t>
   </si>
@@ -35,13 +35,7 @@
     <t>dd/mm/aaaa</t>
   </si>
   <si>
-    <t>17/11/2022</t>
-  </si>
-  <si>
-    <t>14/12/2022</t>
-  </si>
-  <si>
-    <t>19/12/2022</t>
+    <t>18/01/2023</t>
   </si>
 </sst>
 </file>
@@ -366,7 +360,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,14 +385,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
